--- a/target/test-classes/open_emr_data.xlsx
+++ b/target/test-classes/open_emr_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mine\Company\Sileverlake Malaysia July 2024\automation_workspace\HealthRecordAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3238E0BC-1594-434E-B56D-8628A191F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2976CB73-4D3E-4EF5-B9C3-FD9CFDDE6D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="1" xr2:uid="{DF20F66C-A67A-417F-8B1D-36F638E4EB22}"/>
+    <workbookView xWindow="5486" yWindow="2014" windowWidth="16457" windowHeight="9549" activeTab="2" xr2:uid="{DF20F66C-A67A-417F-8B1D-36F638E4EB22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>ExpectedError</t>
-  </si>
-  <si>
-    <t>bala</t>
   </si>
   <si>
     <t>bala123</t>
@@ -463,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703EB5DD-0646-4F11-89EC-FEA7910C85E2}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -515,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89323BD3-84E3-469D-A038-5C74D4171FC3}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -540,21 +537,21 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
